--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2398.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2398.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.074943135290799</v>
+        <v>1.12221348285675</v>
       </c>
       <c r="B1">
-        <v>2.363769519375201</v>
+        <v>2.415584087371826</v>
       </c>
       <c r="C1">
-        <v>7.182911918511076</v>
+        <v>5.149642467498779</v>
       </c>
       <c r="D1">
-        <v>1.767752751370053</v>
+        <v>2.258928775787354</v>
       </c>
       <c r="E1">
-        <v>0.9901324078220659</v>
+        <v>1.265967965126038</v>
       </c>
     </row>
   </sheetData>
